--- a/Experiments/Section_5.2/Policy_Perf.xlsx
+++ b/Experiments/Section_5.2/Policy_Perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasDM\Desktop\TRL_RHNetworks\Numerical_Experiments\Section_5.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47885CF-ED57-4244-9839-7C1D9F5CC35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D01E9-42A2-4587-9A0A-D69063E7D096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{D65BF7A1-7786-417F-851E-1060989418B9}"/>
   </bookViews>
@@ -741,6 +741,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,24 +772,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559742C3-30A0-4510-A1C5-D39DDF7FC6F8}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,25 +1751,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -1823,44 +1823,44 @@
         <v>15043</v>
       </c>
       <c r="E3" s="19">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F3" s="20">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G3" s="21">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H3" s="13">
         <f>B3*E3/100</f>
-        <v>15511</v>
+        <v>8065.72</v>
       </c>
       <c r="I3" s="46">
         <f>C3*F3/100</f>
-        <v>23378</v>
+        <v>15195.7</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J27" si="0">G3/150*D3</f>
-        <v>11232.106666666667</v>
+        <v>5214.9066666666668</v>
       </c>
       <c r="K3" s="41">
         <f>(J3-H3)/H3</f>
-        <v>-0.27586186147465241</v>
+        <v>-0.3534480906023682</v>
       </c>
       <c r="L3" s="32">
         <f t="shared" ref="L3:L27" si="1">(J3-I3)/I3</f>
-        <v>-0.51954373057290326</v>
+        <v>-0.65681695040921673</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="44">
         <f>AVERAGE(K3:K27)</f>
-        <v>-0.43689328591042648</v>
+        <v>-0.41936606033679863</v>
       </c>
       <c r="O3" s="44">
         <f>AVERAGE(L3:L27)</f>
-        <v>-0.63787747418267982</v>
+        <v>-0.65222024130424472</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1878,44 +1878,44 @@
         <v>12236</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H4" s="13">
         <f>B4*E4/100</f>
-        <v>19843</v>
+        <v>13096.38</v>
       </c>
       <c r="I4" s="46">
         <f t="shared" ref="H4:I26" si="2">C4*F4/100</f>
-        <v>29336</v>
+        <v>21708.639999999999</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>6118</v>
+        <v>4812.8266666666668</v>
       </c>
       <c r="K4" s="42">
         <f t="shared" ref="K4:K27" si="3">(J4-H4)/H4</f>
-        <v>-0.69167968553142167</v>
+        <v>-0.63250709992634102</v>
       </c>
       <c r="L4" s="29">
         <f t="shared" si="1"/>
-        <v>-0.79145077720207258</v>
+        <v>-0.77829902441301402</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="45">
         <f>MEDIAN(K3:K27)</f>
-        <v>-0.54174998660451157</v>
+        <v>-0.44896562827014413</v>
       </c>
       <c r="O4" s="45">
         <f>MEDIAN(L3:L27)</f>
-        <v>-0.68502944173602631</v>
+        <v>-0.69614223599626979</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1933,36 +1933,36 @@
         <v>16312</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H5" s="13">
         <f>B5*E5/100</f>
-        <v>17217</v>
+        <v>9813.69</v>
       </c>
       <c r="I5" s="46">
         <f t="shared" si="2"/>
-        <v>24533.759999999998</v>
+        <v>20189.240000000002</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>7721.0133333333333</v>
+        <v>5654.8266666666668</v>
       </c>
       <c r="K5" s="42">
         <f t="shared" si="3"/>
-        <v>-0.55154711428626746</v>
+        <v>-0.42378181227788259</v>
       </c>
       <c r="L5" s="29">
         <f t="shared" si="1"/>
-        <v>-0.68529025582163794</v>
+        <v>-0.71990888876120807</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M4:M27" si="5">A5</f>
+        <f t="shared" ref="M5:M27" si="5">A5</f>
         <v>3</v>
       </c>
     </row>
@@ -1981,33 +1981,33 @@
         <v>12959</v>
       </c>
       <c r="E6" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>22481</v>
+        <v>13488.6</v>
       </c>
       <c r="I6" s="46">
         <f>C6*F6/86</f>
-        <v>16942</v>
+        <v>10244</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
-        <v>4578.8466666666664</v>
+        <v>4492.4533333333338</v>
       </c>
       <c r="K6" s="42">
         <f t="shared" si="3"/>
-        <v>-0.79632371039247962</v>
+        <v>-0.66694443208833143</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" si="1"/>
-        <v>-0.72973399441230868</v>
+        <v>-0.56145516074450075</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -2029,33 +2029,33 @@
         <v>15294</v>
       </c>
       <c r="E7" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G7" s="14">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H7" s="13">
         <f>B7*E7/100</f>
-        <v>15490</v>
+        <v>8054.8</v>
       </c>
       <c r="I7" s="46">
         <f t="shared" si="2"/>
-        <v>23300.2</v>
+        <v>19373.2</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
-        <v>6933.28</v>
+        <v>5301.92</v>
       </c>
       <c r="K7" s="43">
         <f t="shared" si="3"/>
-        <v>-0.55240284054228539</v>
+        <v>-0.34176888315041964</v>
       </c>
       <c r="L7" s="30">
         <f t="shared" si="1"/>
-        <v>-0.7024368889537429</v>
+        <v>-0.72632709103297344</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2077,21 +2077,21 @@
         <v>8120</v>
       </c>
       <c r="E8" s="19">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F8" s="20">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G8" s="21">
         <v>52</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="2"/>
-        <v>17352</v>
+        <v>9023.0400000000009</v>
       </c>
       <c r="I8" s="46">
         <f>C8*F8/90</f>
-        <v>11647.133333333333</v>
+        <v>6805.0666666666666</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="K8" s="41">
         <f t="shared" si="3"/>
-        <v>-0.83777470416474564</v>
+        <v>-0.68802827723989557</v>
       </c>
       <c r="L8" s="32">
         <f t="shared" si="1"/>
-        <v>-0.75831535084455692</v>
+        <v>-0.58634742740703005</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -2125,33 +2125,33 @@
         <v>11505</v>
       </c>
       <c r="E9" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H9" s="13">
         <f>B9*E9/100</f>
-        <v>17051</v>
+        <v>10571.62</v>
       </c>
       <c r="I9" s="46">
         <f>C9*F9/100</f>
-        <v>17936</v>
+        <v>11120.32</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="0"/>
-        <v>4755.3999999999996</v>
+        <v>4371.8999999999996</v>
       </c>
       <c r="K9" s="42">
         <f t="shared" si="3"/>
-        <v>-0.72110726643598622</v>
+        <v>-0.58644938051121787</v>
       </c>
       <c r="L9" s="29">
         <f t="shared" si="1"/>
-        <v>-0.73486842105263162</v>
+        <v>-0.60685483870967749</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
@@ -2173,33 +2173,33 @@
         <v>15451</v>
       </c>
       <c r="E10" s="5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H10" s="13">
         <f>B10*E10/100</f>
-        <v>17234</v>
+        <v>9478.7000000000007</v>
       </c>
       <c r="I10" s="46">
         <f>C10*F10/77</f>
-        <v>30255</v>
+        <v>25539.935064935064</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>10300.666666666666</v>
+        <v>5356.3466666666673</v>
       </c>
       <c r="K10" s="42">
         <f t="shared" si="3"/>
-        <v>-0.40230552009593445</v>
+        <v>-0.43490703718161067</v>
       </c>
       <c r="L10" s="29">
         <f t="shared" si="1"/>
-        <v>-0.65953836831377743</v>
+        <v>-0.79027563488128671</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
@@ -2221,17 +2221,17 @@
         <v>21615</v>
       </c>
       <c r="E11" s="11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F11" s="13">
         <v>58</v>
       </c>
       <c r="G11" s="14">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H11" s="13">
         <f>B11*E11/100</f>
-        <v>17639</v>
+        <v>13229.25</v>
       </c>
       <c r="I11" s="46">
         <f>C11*F11/58</f>
@@ -2239,15 +2239,15 @@
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>9366.5</v>
+        <v>7493.2</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="3"/>
-        <v>-0.46898917172175292</v>
+        <v>-0.43358844983653649</v>
       </c>
       <c r="L11" s="30">
         <f t="shared" si="1"/>
-        <v>-0.69041480746983974</v>
+        <v>-0.75233184597587177</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
@@ -2269,33 +2269,33 @@
         <v>16084</v>
       </c>
       <c r="E12" s="34">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F12" s="15">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G12" s="35">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>19495</v>
+        <v>10137.4</v>
       </c>
       <c r="I12" s="46">
         <f>C12*F12/92</f>
-        <v>24923.119565217392</v>
+        <v>18349.989130434784</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>8899.8133333333335</v>
+        <v>5575.7866666666669</v>
       </c>
       <c r="K12" s="39">
         <f t="shared" si="3"/>
-        <v>-0.54348226040865177</v>
+        <v>-0.4499786269983756</v>
       </c>
       <c r="L12" s="36">
         <f t="shared" si="1"/>
-        <v>-0.64290933524413696</v>
+        <v>-0.69614223599626979</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
@@ -2317,33 +2317,33 @@
         <v>15272</v>
       </c>
       <c r="E13" s="5">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" s="13">
         <f>B13*E13/100</f>
-        <v>12442</v>
+        <v>6469.84</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" si="2"/>
-        <v>28440</v>
+        <v>16779.599999999999</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>5701.5466666666671</v>
+        <v>5294.2933333333331</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="3"/>
-        <v>-0.54174998660451157</v>
+        <v>-0.18169640465091363</v>
       </c>
       <c r="L13" s="29">
         <f t="shared" si="1"/>
-        <v>-0.79952367557430837</v>
+        <v>-0.68448036107336685</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
@@ -2365,33 +2365,33 @@
         <v>16310</v>
       </c>
       <c r="E14" s="5">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F14" s="6">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="H14" s="13">
         <f>B14*E14/100</f>
-        <v>16973</v>
+        <v>15105.97</v>
       </c>
       <c r="I14" s="46">
         <f>C14*F14/95</f>
-        <v>30255</v>
+        <v>17197.57894736842</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>16201.266666666666</v>
+        <v>7176.4</v>
       </c>
       <c r="K14" s="42">
         <f t="shared" si="3"/>
-        <v>-4.5468292778727014E-2</v>
+        <v>-0.52492954772186096</v>
       </c>
       <c r="L14" s="29">
         <f t="shared" si="1"/>
-        <v>-0.46450944747424666</v>
+        <v>-0.58270870440759714</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
@@ -2413,33 +2413,33 @@
         <v>15434</v>
       </c>
       <c r="E15" s="23">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F15" s="24">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G15" s="22">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H15" s="13">
         <f>B15*E15/100</f>
-        <v>10987.2</v>
+        <v>7141.68</v>
       </c>
       <c r="I15" s="46">
         <f>C15*F15/86</f>
-        <v>22708</v>
+        <v>13730.418604651162</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>15331.106666666667</v>
+        <v>15022.426666666668</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" si="3"/>
-        <v>0.39536066210378129</v>
+        <v>1.1034863878900578</v>
       </c>
       <c r="L15" s="47">
         <f t="shared" si="1"/>
-        <v>-0.3248587869179731</v>
+        <v>9.4098228117956997E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
@@ -2461,33 +2461,33 @@
         <v>13184</v>
       </c>
       <c r="E16" s="19">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F16" s="20">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G16" s="21">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H16" s="13">
         <f>B16*E16/100</f>
-        <v>16625</v>
+        <v>8645</v>
       </c>
       <c r="I16" s="46">
         <f>C16*F16/80</f>
-        <v>30255</v>
+        <v>22313.0625</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>7031.4666666666662</v>
+        <v>4570.4533333333338</v>
       </c>
       <c r="K16" s="41">
         <f t="shared" si="3"/>
-        <v>-0.57705463659147871</v>
+        <v>-0.4713182957393483</v>
       </c>
       <c r="L16" s="32">
         <f t="shared" si="1"/>
-        <v>-0.76759323527791545</v>
+        <v>-0.79516691922799321</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
@@ -2509,33 +2509,33 @@
         <v>15923</v>
       </c>
       <c r="E17" s="5">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F17" s="6">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7">
         <v>69</v>
-      </c>
-      <c r="G17" s="7">
-        <v>149</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>20613</v>
+        <v>11543.28</v>
       </c>
       <c r="I17" s="46">
         <f>C17*F17/86</f>
-        <v>24274.360465116279</v>
+        <v>18293.720930232557</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="0"/>
-        <v>15816.846666666666</v>
+        <v>7324.58</v>
       </c>
       <c r="K17" s="42">
         <f t="shared" si="3"/>
-        <v>-0.23267614288717478</v>
+        <v>-0.36546804721015175</v>
       </c>
       <c r="L17" s="29">
         <f t="shared" si="1"/>
-        <v>-0.34841345503637761</v>
+        <v>-0.59961234633817673</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
@@ -2557,33 +2557,33 @@
         <v>13772</v>
       </c>
       <c r="E18" s="5">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H18" s="13">
         <f>B18*E18/100</f>
-        <v>14884</v>
+        <v>7739.68</v>
       </c>
       <c r="I18" s="46">
         <f t="shared" si="2"/>
-        <v>27298</v>
+        <v>16924.759999999998</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="0"/>
-        <v>7712.3200000000006</v>
+        <v>4774.2933333333331</v>
       </c>
       <c r="K18" s="42">
         <f t="shared" si="3"/>
-        <v>-0.48183821553345868</v>
+        <v>-0.38314073277792715</v>
       </c>
       <c r="L18" s="29">
         <f t="shared" si="1"/>
-        <v>-0.7174767382225804</v>
+        <v>-0.71791072172761483</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
@@ -2605,33 +2605,33 @@
         <v>14251</v>
       </c>
       <c r="E19" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F19" s="13">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G19" s="14">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="H19" s="13">
         <f>B19*E19/100</f>
-        <v>14931</v>
+        <v>11944.8</v>
       </c>
       <c r="I19" s="46">
         <f>C19*F19/92</f>
-        <v>21553.152173913044</v>
+        <v>16816.195652173912</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="0"/>
-        <v>12255.86</v>
+        <v>4940.3466666666673</v>
       </c>
       <c r="K19" s="43">
         <f t="shared" si="3"/>
-        <v>-0.17916683410354292</v>
+        <v>-0.58640189315294788</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="1"/>
-        <v>-0.43136577419826616</v>
+        <v>-0.70621496271494644</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
@@ -2653,33 +2653,33 @@
         <v>13691</v>
       </c>
       <c r="E20" s="19">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F20" s="20">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G20" s="21">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H20" s="13">
         <f>B20*E20/100</f>
-        <v>16564</v>
+        <v>8613.2800000000007</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" si="2"/>
-        <v>21154.21</v>
+        <v>17033.259999999998</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>6662.9533333333338</v>
+        <v>4746.2133333333331</v>
       </c>
       <c r="K20" s="41">
         <f t="shared" si="3"/>
-        <v>-0.59774490863720509</v>
+        <v>-0.44896562827014413</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="1"/>
-        <v>-0.68502944173602631</v>
+        <v>-0.72135613891096984</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
@@ -2701,33 +2701,33 @@
         <v>15593</v>
       </c>
       <c r="E21" s="5">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F21" s="6">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="13">
         <f>B21*E21/100</f>
-        <v>16671</v>
+        <v>10669.44</v>
       </c>
       <c r="I21" s="13">
         <f>C21*F21/92</f>
-        <v>21960.67391304348</v>
+        <v>13031.608695652174</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="0"/>
-        <v>5301.6200000000008</v>
+        <v>5405.5733333333337</v>
       </c>
       <c r="K21" s="42">
         <f t="shared" si="3"/>
-        <v>-0.68198548377421864</v>
+        <v>-0.49335922660108372</v>
       </c>
       <c r="L21" s="29">
         <f t="shared" si="1"/>
-        <v>-0.75858573279706498</v>
+        <v>-0.58519523877839941</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
@@ -2749,33 +2749,33 @@
         <v>15396</v>
       </c>
       <c r="E22" s="5">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>21681</v>
+        <v>15393.51</v>
       </c>
       <c r="I22" s="13">
         <f>C22*F22/86</f>
-        <v>20669</v>
+        <v>12497.534883720929</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>6363.68</v>
+        <v>5645.2</v>
       </c>
       <c r="K22" s="42">
         <f t="shared" si="3"/>
-        <v>-0.70648586319819195</v>
+        <v>-0.63327402262382015</v>
       </c>
       <c r="L22" s="29">
         <f t="shared" si="1"/>
-        <v>-0.69211476123663451</v>
+        <v>-0.54829491955622878</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
@@ -2800,10 +2800,10 @@
         <v>100</v>
       </c>
       <c r="F23" s="13">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G23" s="14">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="H23" s="13">
         <f>B23*E23/100</f>
@@ -2811,19 +2811,19 @@
       </c>
       <c r="I23" s="13">
         <f>C23*F23/98</f>
-        <v>30255</v>
+        <v>16053.673469387755</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="0"/>
-        <v>14726.166666666666</v>
+        <v>5139.3333333333339</v>
       </c>
       <c r="K23" s="43">
         <f t="shared" si="3"/>
-        <v>-0.28513754045307449</v>
+        <v>-0.75051779935275076</v>
       </c>
       <c r="L23" s="30">
         <f t="shared" si="1"/>
-        <v>-0.5132650250647276</v>
+        <v>-0.67986558695532417</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
@@ -2845,33 +2845,33 @@
         <v>14860</v>
       </c>
       <c r="E24" s="19">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G24" s="21">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H24" s="13">
         <f>B24*E24/100</f>
-        <v>8554.56</v>
+        <v>7804.16</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="2"/>
-        <v>20864.8</v>
+        <v>15648.6</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
-        <v>8420.6666666666661</v>
+        <v>5151.4666666666672</v>
       </c>
       <c r="K24" s="41">
         <f t="shared" si="3"/>
-        <v>-1.5651691417598736E-2</v>
+        <v>-0.33990760483297788</v>
       </c>
       <c r="L24" s="32">
         <f t="shared" si="1"/>
-        <v>-0.5964175709009113</v>
+        <v>-0.67080335195054719</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
@@ -2893,33 +2893,33 @@
         <v>14576</v>
       </c>
       <c r="E25" s="5">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F25" s="6">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H25" s="13">
         <f>B25*E25/100</f>
-        <v>16118</v>
+        <v>8381.36</v>
       </c>
       <c r="I25" s="13">
         <f t="shared" si="2"/>
-        <v>20823.599999999999</v>
+        <v>16956.36</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="0"/>
-        <v>7385.1733333333341</v>
+        <v>5053.0133333333333</v>
       </c>
       <c r="K25" s="42">
         <f t="shared" si="3"/>
-        <v>-0.54180584853373037</v>
+        <v>-0.39711295859701373</v>
       </c>
       <c r="L25" s="29">
         <f t="shared" si="1"/>
-        <v>-0.64534598564449308</v>
+        <v>-0.70199893530608382</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
@@ -2941,33 +2941,33 @@
         <v>15919</v>
       </c>
       <c r="E26" s="5">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F26" s="6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H26" s="13">
         <f>B26*E26/100</f>
-        <v>14686</v>
+        <v>13657.98</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" si="2"/>
-        <v>28744</v>
+        <v>24432.400000000001</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="0"/>
-        <v>9975.9066666666677</v>
+        <v>5518.586666666667</v>
       </c>
       <c r="K26" s="42">
         <f t="shared" si="3"/>
-        <v>-0.32071996005265779</v>
+        <v>-0.59594415377188525</v>
       </c>
       <c r="L26" s="29">
         <f t="shared" si="1"/>
-        <v>-0.65293951201410139</v>
+        <v>-0.77412834323821378</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
@@ -2989,33 +2989,33 @@
         <v>15309</v>
       </c>
       <c r="E27" s="11">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G27" s="14">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H27" s="24">
         <f>B27*E27/100</f>
-        <v>14794</v>
+        <v>9764.0400000000009</v>
       </c>
       <c r="I27" s="24">
         <f>C27*F27/99</f>
-        <v>29639</v>
-      </c>
-      <c r="J27" s="54">
+        <v>23950.707070707071</v>
+      </c>
+      <c r="J27" s="49">
         <f t="shared" si="0"/>
-        <v>10818.36</v>
+        <v>5817.42</v>
       </c>
       <c r="K27" s="43">
         <f t="shared" si="3"/>
-        <v>-0.26873327024469373</v>
+        <v>-0.40419949119421883</v>
       </c>
       <c r="L27" s="30">
         <f t="shared" si="1"/>
-        <v>-0.63499578258375788</v>
+        <v>-0.7571086322075643</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
@@ -3028,17 +3028,17 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="57">
+      <c r="H28" s="52">
         <f>STDEVA(H2:H27)</f>
-        <v>4515.4228538976877</v>
-      </c>
-      <c r="I28" s="58">
+        <v>3811.0033703834256</v>
+      </c>
+      <c r="I28" s="53">
         <f t="shared" ref="I28:J28" si="6">STDEVA(I2:I27)</f>
-        <v>6844.2212011865795</v>
-      </c>
-      <c r="J28" s="55">
-        <f t="shared" si="6"/>
-        <v>4020.956992272022</v>
+        <v>6157.1195466687823</v>
+      </c>
+      <c r="J28" s="50">
+        <f>STDEVA(J2:J27)</f>
+        <v>2400.599430262323</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3047,13 +3047,13 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="59">
+      <c r="H29" s="54">
         <f>(H28-J28)/J28</f>
-        <v>0.12297218363090975</v>
-      </c>
-      <c r="I29" s="56">
+        <v>0.58752156746408213</v>
+      </c>
+      <c r="I29" s="51">
         <f>(I28-J28)/J28</f>
-        <v>0.70213738031534778</v>
+        <v>1.5648258801744235</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
